--- a/data/2024 Imrana-salt, food/14_days.xlsx
+++ b/data/2024 Imrana-salt, food/14_days.xlsx
@@ -52,7 +52,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -115,7 +115,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -434,7 +434,7 @@
     <col min="7" max="7" style="6" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,12 +453,12 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2" s="3">
-        <v>91.6666666666667</v>
+        <v>88</v>
       </c>
       <c r="C2" s="3">
         <v>86.6666666666667</v>
@@ -468,12 +468,12 @@
       <c r="F2" s="1"/>
       <c r="G2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4">
         <v>0.178</v>
       </c>
       <c r="B3" s="3">
-        <v>91.6666666666667</v>
+        <v>92</v>
       </c>
       <c r="C3" s="3">
         <v>90</v>
@@ -487,12 +487,12 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4">
         <v>0.316</v>
       </c>
       <c r="B4" s="3">
-        <v>88.3333333333333</v>
+        <v>88</v>
       </c>
       <c r="C4" s="3">
         <v>93.3333333333333</v>
@@ -506,12 +506,12 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4">
         <v>0.562</v>
       </c>
       <c r="B5" s="3">
-        <v>93.3333333333333</v>
+        <v>93</v>
       </c>
       <c r="C5" s="3">
         <v>93.3333333333333</v>
@@ -521,7 +521,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -536,12 +536,12 @@
       <c r="F6" s="3"/>
       <c r="G6" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4">
         <v>1.78</v>
       </c>
       <c r="B7" s="3">
-        <v>93.3333333333333</v>
+        <v>93</v>
       </c>
       <c r="C7" s="3">
         <v>93.3333333333333</v>
@@ -551,12 +551,12 @@
       <c r="F7" s="3"/>
       <c r="G7" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4">
         <v>3.16</v>
       </c>
       <c r="B8" s="3">
-        <v>83.3333333333333</v>
+        <v>83</v>
       </c>
       <c r="C8" s="3">
         <v>85</v>
@@ -566,12 +566,12 @@
       <c r="F8" s="3"/>
       <c r="G8" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4">
         <v>5.62</v>
       </c>
       <c r="B9" s="3">
-        <v>78.3333333333333</v>
+        <v>78</v>
       </c>
       <c r="C9" s="3">
         <v>38.3333333333333</v>
@@ -581,12 +581,12 @@
       <c r="F9" s="3"/>
       <c r="G9" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4">
         <v>7.5</v>
       </c>
       <c r="B10" s="3">
-        <v>48.3333333333333</v>
+        <v>48</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
@@ -596,7 +596,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
